--- a/Python Scripts/Cronograma_Vigilancia.xlsx
+++ b/Python Scripts/Cronograma_Vigilancia.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,15 +26,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b val="1"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="18"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFBFBF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,19 +62,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,106 +467,422 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Cronograma de Entrega y Recepcion de Llaves al Vigilante CNTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Lunes</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Martes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Miercoles</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Jueves</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Viernes</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>row 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="4" ht="47.25" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Recibe</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>Henry Flores</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Bernardo Conquet</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Peña</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>Henry Flores</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="5" ht="47.25" customHeight="1">
+      <c r="A5" s="3">
+        <f>A4+4</f>
+        <v/>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Bernardo Conquet</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>Juan Gil</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Palmera</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Contreras</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>Juan Gil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="47.25" customHeight="1">
+      <c r="A7" s="3">
+        <f>A5+3</f>
+        <v/>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Recibe</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Jairo Peña</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Jackson Diaz</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Bernardo Conquet</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Henry Flores</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Jairo Prieto</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>row 2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Henry Flores</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="47.25" customHeight="1">
+      <c r="A8" s="3">
+        <f>A7+4</f>
+        <v/>
+      </c>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Juan Gil</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Contreras</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Palmera</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>Bernardo Conquet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>Juan Gil</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="47.25" customHeight="1">
+      <c r="A10" s="3">
+        <f>A8+3</f>
+        <v/>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Recibe</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Peña</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Henry Flores</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>Bernardo Conquet</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="47.25" customHeight="1">
+      <c r="A11" s="3">
+        <f>A10+4</f>
+        <v/>
+      </c>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Bernardo Conquet</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>Miguel Palmera</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Contreras</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t>Jairo Prieto</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Contreras</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="47.25" customHeight="1">
+      <c r="A13" s="3">
+        <f>A11+3</f>
+        <v/>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Recibe</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Bernardo Conquet</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>Henry Flores</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>Jairo Peña</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>Henry Flores</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="47.25" customHeight="1">
+      <c r="A14" s="3">
+        <f>A13+4</f>
+        <v/>
+      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Contreras</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>Juan Gil</t>
         </is>
       </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Palmera</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>Jairo Prieto</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>Miguel Contreras</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>